--- a/training/output/Resnet34_ViT/P/P0_P2.xlsx
+++ b/training/output/Resnet34_ViT/P/P0_P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8804824561403509</v>
+        <v>0.6626470588235295</v>
       </c>
       <c r="B2" t="n">
-        <v>1.746135180456597</v>
+        <v>1.581823320949779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.8538235294117648</v>
       </c>
       <c r="B3" t="n">
-        <v>1.512440685640302</v>
+        <v>1.23326166938333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9170588235294117</v>
       </c>
       <c r="B4" t="n">
-        <v>1.466165398296557</v>
+        <v>1.058490016881157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.9355882352941177</v>
       </c>
       <c r="B5" t="n">
-        <v>1.429268592282345</v>
+        <v>0.9493960738182068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9529411764705882</v>
       </c>
       <c r="B6" t="n">
-        <v>1.429184077078836</v>
+        <v>0.8756111439536599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9591176470588235</v>
       </c>
       <c r="B7" t="n">
-        <v>1.433752563961765</v>
+        <v>0.8325503854190602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9673529411764706</v>
       </c>
       <c r="B8" t="n">
-        <v>1.439302904564038</v>
+        <v>0.8198160634321325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9647058823529411</v>
       </c>
       <c r="B9" t="n">
-        <v>1.434341537325006</v>
+        <v>0.789158260121065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9667647058823529</v>
       </c>
       <c r="B10" t="n">
-        <v>1.408973894621196</v>
+        <v>0.7749256561784184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9726470588235294</v>
       </c>
       <c r="B11" t="n">
-        <v>1.432057370219314</v>
+        <v>0.7552280426025391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9717647058823529</v>
       </c>
       <c r="B12" t="n">
-        <v>1.419689649029782</v>
+        <v>0.7465629262082717</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B13" t="n">
-        <v>1.423955990557085</v>
+        <v>0.7407635730855605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9732352941176472</v>
       </c>
       <c r="B14" t="n">
-        <v>1.424382167950011</v>
+        <v>0.74043168741114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9711764705882354</v>
       </c>
       <c r="B15" t="n">
-        <v>1.40408514257063</v>
+        <v>0.7371733784675598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9732352941176472</v>
       </c>
       <c r="B16" t="n">
-        <v>1.406832584163599</v>
+        <v>0.7268002979895648</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="B17" t="n">
-        <v>1.396179924931443</v>
+        <v>0.7268596081172719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9717647058823529</v>
       </c>
       <c r="B18" t="n">
-        <v>1.397409729790269</v>
+        <v>0.7279706001281738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.976470588235294</v>
       </c>
       <c r="B19" t="n">
-        <v>1.405303001403809</v>
+        <v>0.7226077177945305</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.976764705882353</v>
       </c>
       <c r="B20" t="n">
-        <v>1.473450311443262</v>
+        <v>0.7285201444345362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9744117647058824</v>
       </c>
       <c r="B21" t="n">
-        <v>1.440611764004356</v>
+        <v>0.7208192839342005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9794117647058823</v>
       </c>
       <c r="B22" t="n">
-        <v>1.418187833668893</v>
+        <v>0.7167208124609554</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9741176470588234</v>
       </c>
       <c r="B23" t="n">
-        <v>1.40129434225852</v>
+        <v>0.7232306915171006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9747058823529412</v>
       </c>
       <c r="B24" t="n">
-        <v>1.403534316180045</v>
+        <v>0.7232268031905679</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9729411764705882</v>
       </c>
       <c r="B25" t="n">
-        <v>1.412688782340602</v>
+        <v>0.7240038514137268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B26" t="n">
-        <v>1.399189612321686</v>
+        <v>0.7227797438116634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9791176470588235</v>
       </c>
       <c r="B27" t="n">
-        <v>1.400791205857929</v>
+        <v>0.7185576452928431</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.980294117647059</v>
       </c>
       <c r="B28" t="n">
-        <v>1.399174734165794</v>
+        <v>0.7201030043994679</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.978529411764706</v>
       </c>
       <c r="B29" t="n">
-        <v>1.39787014743738</v>
+        <v>0.719186965157004</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9755882352941176</v>
       </c>
       <c r="B30" t="n">
-        <v>1.41796913063317</v>
+        <v>0.7152138913378996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9794117647058823</v>
       </c>
       <c r="B31" t="n">
-        <v>1.403857730982596</v>
+        <v>0.7137426698909086</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B32" t="n">
-        <v>1.399783870630097</v>
+        <v>0.7183201313018799</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9773529411764705</v>
       </c>
       <c r="B33" t="n">
-        <v>1.409480833170707</v>
+        <v>0.7146831049638636</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9758823529411764</v>
       </c>
       <c r="B34" t="n">
-        <v>1.421989217139127</v>
+        <v>0.7146592736244202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9808823529411765</v>
       </c>
       <c r="B35" t="n">
-        <v>1.409901769537675</v>
+        <v>0.7114746360217824</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9794117647058823</v>
       </c>
       <c r="B36" t="n">
-        <v>1.399192155453197</v>
+        <v>0.7135092721265905</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B37" t="n">
-        <v>1.407442845796284</v>
+        <v>0.7147351293002858</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9770588235294118</v>
       </c>
       <c r="B38" t="n">
-        <v>1.398920370821367</v>
+        <v>0.7112671031671411</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B39" t="n">
-        <v>1.397104188015587</v>
+        <v>0.7118226850734037</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9794117647058823</v>
       </c>
       <c r="B40" t="n">
-        <v>1.395420218768873</v>
+        <v>0.7108410456601311</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9776470588235293</v>
       </c>
       <c r="B41" t="n">
-        <v>1.390068403461523</v>
+        <v>0.7107525783426621</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9832352941176471</v>
       </c>
       <c r="B42" t="n">
-        <v>1.391485461017542</v>
+        <v>0.7117596373838537</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9805882352941175</v>
       </c>
       <c r="B43" t="n">
-        <v>1.393902230681034</v>
+        <v>0.711676275028902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B44" t="n">
-        <v>1.392455450275488</v>
+        <v>0.7101422337924733</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9802941176470588</v>
       </c>
       <c r="B45" t="n">
-        <v>1.390803391473335</v>
+        <v>0.7125589847564697</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.993421052631579</v>
+        <v>0.981764705882353</v>
       </c>
       <c r="B46" t="n">
-        <v>1.39128125341315</v>
+        <v>0.7110206274425283</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9758823529411764</v>
       </c>
       <c r="B47" t="n">
-        <v>1.396352021317733</v>
+        <v>0.7086054858039407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B48" t="n">
-        <v>1.398062147592243</v>
+        <v>0.7080393714063308</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9791176470588235</v>
       </c>
       <c r="B49" t="n">
-        <v>1.409706935547946</v>
+        <v>0.7087289936402265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9805882352941175</v>
       </c>
       <c r="B50" t="n">
-        <v>1.395011517039517</v>
+        <v>0.7091469133601469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9811764705882353</v>
       </c>
       <c r="B51" t="n">
-        <v>1.39444401180535</v>
+        <v>0.707933106843163</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B52" t="n">
-        <v>1.406530417894062</v>
+        <v>0.710546917775098</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9811764705882353</v>
       </c>
       <c r="B53" t="n">
-        <v>1.398221741642868</v>
+        <v>0.7077073489918428</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.98</v>
       </c>
       <c r="B54" t="n">
-        <v>1.406319795993336</v>
+        <v>0.7084172929034513</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9805882352941178</v>
       </c>
       <c r="B55" t="n">
-        <v>1.408983523385567</v>
+        <v>0.709077940267675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9835294117647058</v>
       </c>
       <c r="B56" t="n">
-        <v>1.401783512349714</v>
+        <v>0.7076918903519126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9776470588235294</v>
       </c>
       <c r="B57" t="n">
-        <v>1.394613874586005</v>
+        <v>0.70987868309021</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9788235294117648</v>
       </c>
       <c r="B58" t="n">
-        <v>1.397062065308554</v>
+        <v>0.7126614241039052</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9726470588235294</v>
       </c>
       <c r="B59" t="n">
-        <v>1.393390923215632</v>
+        <v>0.7275442551164066</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9773529411764708</v>
       </c>
       <c r="B60" t="n">
-        <v>1.458798496346725</v>
+        <v>0.7110740226857802</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.975</v>
       </c>
       <c r="B61" t="n">
-        <v>1.393541348607917</v>
+        <v>0.7111851327559527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B62" t="n">
-        <v>1.401380221048991</v>
+        <v>0.7089084106333116</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B63" t="n">
-        <v>1.395862094142981</v>
+        <v>0.709296843584846</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9758823529411764</v>
       </c>
       <c r="B64" t="n">
-        <v>1.389784718814649</v>
+        <v>0.7080247297006494</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9808823529411765</v>
       </c>
       <c r="B65" t="n">
-        <v>1.394448909843177</v>
+        <v>0.7083248285686269</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9826470588235295</v>
       </c>
       <c r="B66" t="n">
-        <v>1.419999670564083</v>
+        <v>0.7052925299195683</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B67" t="n">
-        <v>1.394959911965487</v>
+        <v>0.7074897885322571</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9802941176470588</v>
       </c>
       <c r="B68" t="n">
-        <v>1.390838250779269</v>
+        <v>0.7077707858646617</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390920823080498</v>
+        <v>0.7092444020159104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.980294117647059</v>
       </c>
       <c r="B70" t="n">
-        <v>1.389973096680223</v>
+        <v>0.7082052511327407</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.980294117647059</v>
       </c>
       <c r="B71" t="n">
-        <v>1.419261767153154</v>
+        <v>0.7092584581936107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B72" t="n">
-        <v>1.394397900815596</v>
+        <v>0.7073138040654799</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9838235294117648</v>
       </c>
       <c r="B73" t="n">
-        <v>1.447800445974919</v>
+        <v>0.7050609027638155</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.993421052631579</v>
+        <v>0.978529411764706</v>
       </c>
       <c r="B74" t="n">
-        <v>1.393609358553301</v>
+        <v>0.7058694713255939</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B75" t="n">
-        <v>1.411506933078431</v>
+        <v>0.7060612299863029</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B76" t="n">
-        <v>1.393659608405933</v>
+        <v>0.7070746001075295</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9776470588235294</v>
       </c>
       <c r="B77" t="n">
-        <v>1.390661170608119</v>
+        <v>0.7054550787981819</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B78" t="n">
-        <v>1.393913990572879</v>
+        <v>0.7070321861435386</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9808823529411765</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39022784065782</v>
+        <v>0.7080856351291432</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9814705882352942</v>
       </c>
       <c r="B80" t="n">
-        <v>1.390291481687312</v>
+        <v>0.7043327373616836</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B81" t="n">
-        <v>1.438246578500982</v>
+        <v>0.705849661546595</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9776470588235294</v>
       </c>
       <c r="B82" t="n">
-        <v>1.399691705118146</v>
+        <v>0.7053136510007522</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9989035087719298</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B83" t="n">
-        <v>1.389732003211975</v>
+        <v>0.704975335037007</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B84" t="n">
-        <v>1.404439215074506</v>
+        <v>0.7068307014072642</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.978529411764706</v>
       </c>
       <c r="B85" t="n">
-        <v>1.393218421099479</v>
+        <v>0.7086671064881718</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9797058823529412</v>
       </c>
       <c r="B86" t="n">
-        <v>1.39808608147136</v>
+        <v>0.7074915696592892</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9820588235294118</v>
       </c>
       <c r="B87" t="n">
-        <v>1.390844066937764</v>
+        <v>0.7041531064931084</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9844117647058823</v>
       </c>
       <c r="B88" t="n">
-        <v>1.44577918136329</v>
+        <v>0.7044053778928869</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9826470588235295</v>
       </c>
       <c r="B89" t="n">
-        <v>1.392969148200855</v>
+        <v>0.7078169128474068</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9814705882352942</v>
       </c>
       <c r="B90" t="n">
-        <v>1.402174466534665</v>
+        <v>0.7072678418720469</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9838235294117648</v>
       </c>
       <c r="B91" t="n">
-        <v>1.394967328038132</v>
+        <v>0.7044129126212176</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9826470588235295</v>
       </c>
       <c r="B92" t="n">
-        <v>1.388968346411722</v>
+        <v>0.7046770383329952</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9861764705882353</v>
       </c>
       <c r="B93" t="n">
-        <v>1.389843146006266</v>
+        <v>0.7074447765069849</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9838235294117648</v>
       </c>
       <c r="B94" t="n">
-        <v>1.38874147858536</v>
+        <v>0.7055955564274508</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9832352941176471</v>
       </c>
       <c r="B95" t="n">
-        <v>1.397222410168564</v>
+        <v>0.707139204530155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9844117647058823</v>
       </c>
       <c r="B96" t="n">
-        <v>1.389200534736901</v>
+        <v>0.7063557540669161</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.981764705882353</v>
       </c>
       <c r="B97" t="n">
-        <v>1.405124319227118</v>
+        <v>0.704841203549329</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9832352941176471</v>
       </c>
       <c r="B98" t="n">
-        <v>1.410758763028864</v>
+        <v>0.7070187365307528</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9814705882352941</v>
       </c>
       <c r="B99" t="n">
-        <v>1.401949183982715</v>
+        <v>0.704516747418572</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9855882352941178</v>
       </c>
       <c r="B100" t="n">
-        <v>1.406702936741344</v>
+        <v>0.7041599715457243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9808823529411765</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392088944451851</v>
+        <v>0.7045597889844109</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7035505000282737</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9844117647058823</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7031590272398556</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9855882352941175</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.704892190063701</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9808823529411765</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7048502038506901</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9797058823529412</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7058070091640248</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7035288074437309</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9855882352941175</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7043275272144991</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7036007011637968</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7043775284991545</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9820588235294118</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7042162593673257</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7038372474558213</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9855882352941175</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7030733648468467</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9855882352941175</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7040397594956791</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.703840476625106</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9844117647058823</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7093421010410085</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9611764705882353</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7769325936541838</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7110946879667395</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9788235294117648</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7111777277553782</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7079938509885002</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9794117647058823</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7063264461124644</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9791176470588235</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7061771364773021</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9744117647058824</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7093799324596629</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9764705882352942</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7069711404688218</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.978529411764706</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7047019600868225</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.976764705882353</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7075328897027409</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9791176470588235</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7048864259439356</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9802941176470588</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7078751535976634</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9802941176470588</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.705888502738055</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9861764705882353</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7044585767914268</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7032934322076685</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7061851024627686</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.980294117647059</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7052296014393077</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9820588235294118</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.70647312262479</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9788235294117648</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.705132403794457</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7047681457856122</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7040334203663994</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7048964851042804</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9835294117647058</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7060202745830312</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7023525167913998</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9855882352941178</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7033013000207788</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9823529411764705</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7051140981561997</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7031397819519043</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7037420518258038</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9826470588235295</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7035386702593636</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9817647058823528</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7031923322116628</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9835294117647058</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7035646754152635</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9811764705882353</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7031638376853045</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9844117647058823</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7033443030189065</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7047483430189245</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9788235294117648</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7056098194683299</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9826470588235295</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7022805284051334</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7062508183367112</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9805882352941175</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7042667970937841</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7048184766488916</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7045647291576161</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9844117647058825</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7029459616717171</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9805882352941178</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7020005864255568</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7031722840140847</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9814705882352942</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7041671591646531</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9805882352941175</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7039502683807822</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9814705882352942</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7029642673099742</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9855882352941175</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7047932253164404</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9823529411764705</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7029696667895597</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9835294117647058</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7023947659660789</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9829411764705883</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7047887549680822</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9855882352941178</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7032632687512566</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7072664113605723</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7049132340094623</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7031791525728562</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9811764705882353</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7033053566427792</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9826470588235295</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7030427070224986</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7043826825478497</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9855882352941178</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7017951888196609</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7022895602618947</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7032604042221519</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9829411764705883</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7020271315294153</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9820588235294118</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7010184947182151</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9835294117647058</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7052570826867047</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9811764705882353</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7055433427586275</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9817647058823528</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7019396529478186</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7025225092382992</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.703658756087808</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9794117647058823</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7025568555383122</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9841176470588235</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7026176663006053</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9820588235294118</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7020954805261949</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7032675743103027</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9844117647058823</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7044834845206317</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9844117647058823</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7024606361108667</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9805882352941175</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7037259725963368</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7044568447505727</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9688235294117646</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7031765404869529</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9776470588235294</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7024495636715609</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9829411764705883</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7026059837902293</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9820588235294118</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7032157673555262</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9838235294117648</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.702209637445562</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9805882352941175</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7019996327512404</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9832352941176471</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.704471724874833</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9826470588235295</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7027784270398757</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9811764705882353</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7013623819631689</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9829411764705883</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7025358291233287</v>
       </c>
     </row>
   </sheetData>
